--- a/Single-Layer-Perceptron/Single Layer Perceptron.xlsx
+++ b/Single-Layer-Perceptron/Single Layer Perceptron.xlsx
@@ -1198,7 +1198,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -12790,7 +12790,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16373,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="F443" t="n">
@@ -16390,7 +16390,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="F454" t="n">
@@ -16786,7 +16786,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -17489,7 +17489,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="F474" t="n">
@@ -17506,7 +17506,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -17597,7 +17597,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="F477" t="n">
@@ -17614,7 +17614,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -18209,7 +18209,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="F494" t="n">
@@ -18226,7 +18226,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -19054,7 +19054,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -20638,7 +20638,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -20657,7 +20657,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="F562" t="n">
@@ -20674,7 +20674,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -20782,7 +20782,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -20998,7 +20998,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -21053,7 +21053,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="F573" t="n">
@@ -21070,7 +21070,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -21682,7 +21682,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -25625,7 +25625,7 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="F700" t="n">
@@ -25642,7 +25642,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -26817,7 +26817,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -29906,7 +29906,7 @@
         <v>3</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -29921,7 +29921,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -29953,7 +29953,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -29970,7 +29970,7 @@
         <v>2</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -30194,7 +30194,7 @@
         <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -30209,7 +30209,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -30305,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -30418,7 +30418,7 @@
         <v>3</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -30433,7 +30433,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -30913,7 +30913,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -31218,7 +31218,7 @@
         <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -31233,7 +31233,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -31361,7 +31361,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -31489,7 +31489,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -32018,7 +32018,7 @@
         <v>3</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -32033,7 +32033,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -32289,7 +32289,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -33650,7 +33650,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
@@ -33665,7 +33665,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -35058,7 +35058,7 @@
         <v>2</v>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
@@ -35073,7 +35073,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -35137,7 +35137,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -35937,7 +35937,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -37121,7 +37121,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -37330,7 +37330,7 @@
         <v>3</v>
       </c>
       <c r="E350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F350" t="n">
         <v>2</v>
@@ -37345,7 +37345,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -38657,7 +38657,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -39361,7 +39361,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -40225,7 +40225,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -40306,7 +40306,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F443" t="n">
         <v>1</v>
@@ -40321,7 +40321,7 @@
         <v>0</v>
       </c>
       <c r="J443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -40658,7 +40658,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F454" t="n">
         <v>0</v>
@@ -40673,7 +40673,7 @@
         <v>0</v>
       </c>
       <c r="J454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -41298,7 +41298,7 @@
         <v>1</v>
       </c>
       <c r="E474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F474" t="n">
         <v>1</v>
@@ -41313,7 +41313,7 @@
         <v>0</v>
       </c>
       <c r="J474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -41394,7 +41394,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F477" t="n">
         <v>0</v>
@@ -41409,7 +41409,7 @@
         <v>0</v>
       </c>
       <c r="J477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -41938,7 +41938,7 @@
         <v>3</v>
       </c>
       <c r="E494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F494" t="n">
         <v>0</v>
@@ -41953,7 +41953,7 @@
         <v>0</v>
       </c>
       <c r="J494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -42689,7 +42689,7 @@
         <v>0</v>
       </c>
       <c r="J517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -44097,7 +44097,7 @@
         <v>0</v>
       </c>
       <c r="J561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -44114,7 +44114,7 @@
         <v>2</v>
       </c>
       <c r="E562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F562" t="n">
         <v>0</v>
@@ -44129,7 +44129,7 @@
         <v>0</v>
       </c>
       <c r="J562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -44225,7 +44225,7 @@
         <v>0</v>
       </c>
       <c r="J565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -44417,7 +44417,7 @@
         <v>0</v>
       </c>
       <c r="J571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -44466,7 +44466,7 @@
         <v>2</v>
       </c>
       <c r="E573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F573" t="n">
         <v>0</v>
@@ -44481,7 +44481,7 @@
         <v>0</v>
       </c>
       <c r="J573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -45025,7 +45025,7 @@
         <v>0</v>
       </c>
       <c r="J590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -48530,7 +48530,7 @@
         <v>3</v>
       </c>
       <c r="E700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F700" t="n">
         <v>0</v>
@@ -48545,7 +48545,7 @@
         <v>0</v>
       </c>
       <c r="J700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
@@ -49664,7 +49664,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -52753,7 +52753,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -52768,7 +52768,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -52800,7 +52800,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -52817,7 +52817,7 @@
         <v>0.5</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -52832,7 +52832,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -53041,7 +53041,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -53056,7 +53056,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -53152,7 +53152,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -53265,7 +53265,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -53280,7 +53280,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -53760,7 +53760,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -54065,7 +54065,7 @@
         <v>0.5</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -54080,7 +54080,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -54208,7 +54208,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J163" t="n">
         <v>1</v>
@@ -54336,7 +54336,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -54865,7 +54865,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -54880,7 +54880,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -55136,7 +55136,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J192" t="n">
         <v>1</v>
@@ -56497,7 +56497,7 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -56512,7 +56512,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J235" t="n">
         <v>1</v>
@@ -57905,7 +57905,7 @@
         <v>0.5</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E279" t="n">
         <v>0</v>
@@ -57920,7 +57920,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J279" t="n">
         <v>1</v>
@@ -57984,7 +57984,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J281" t="n">
         <v>1</v>
@@ -58784,7 +58784,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J306" t="n">
         <v>1</v>
@@ -59968,7 +59968,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J343" t="n">
         <v>1</v>
@@ -60177,7 +60177,7 @@
         <v>1</v>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E350" t="n">
         <v>0.025</v>
@@ -60192,7 +60192,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J350" t="n">
         <v>0</v>
@@ -61504,7 +61504,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J391" t="n">
         <v>1</v>
@@ -62208,7 +62208,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J413" t="n">
         <v>1</v>
@@ -63072,7 +63072,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J440" t="n">
         <v>1</v>
@@ -63153,7 +63153,7 @@
         <v>0</v>
       </c>
       <c r="D443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E443" t="n">
         <v>0.0125</v>
@@ -63168,7 +63168,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J443" t="n">
         <v>1</v>
@@ -63505,7 +63505,7 @@
         <v>0</v>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E454" t="n">
         <v>0</v>
@@ -63520,7 +63520,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J454" t="n">
         <v>1</v>
@@ -64145,7 +64145,7 @@
         <v>0</v>
       </c>
       <c r="D474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E474" t="n">
         <v>0.0125</v>
@@ -64160,7 +64160,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J474" t="n">
         <v>1</v>
@@ -64241,7 +64241,7 @@
         <v>0</v>
       </c>
       <c r="D477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E477" t="n">
         <v>0</v>
@@ -64256,7 +64256,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J477" t="n">
         <v>1</v>
@@ -64785,7 +64785,7 @@
         <v>1</v>
       </c>
       <c r="D494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E494" t="n">
         <v>0</v>
@@ -64800,7 +64800,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J494" t="n">
         <v>0</v>
@@ -65536,7 +65536,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J517" t="n">
         <v>0</v>
@@ -66944,7 +66944,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J561" t="n">
         <v>0</v>
@@ -66961,7 +66961,7 @@
         <v>0.5</v>
       </c>
       <c r="D562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E562" t="n">
         <v>0</v>
@@ -66976,7 +66976,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J562" t="n">
         <v>1</v>
@@ -67072,7 +67072,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J565" t="n">
         <v>1</v>
@@ -67264,7 +67264,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J571" t="n">
         <v>1</v>
@@ -67313,7 +67313,7 @@
         <v>0.5</v>
       </c>
       <c r="D573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E573" t="n">
         <v>0</v>
@@ -67328,7 +67328,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J573" t="n">
         <v>1</v>
@@ -67872,7 +67872,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J590" t="n">
         <v>1</v>
@@ -71377,7 +71377,7 @@
         <v>1</v>
       </c>
       <c r="D700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E700" t="n">
         <v>0</v>
@@ -71392,7 +71392,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J700" t="n">
         <v>1</v>
